--- a/outputs-r202/test-g__Bifidobacterium.xlsx
+++ b/outputs-r202/test-g__Bifidobacterium.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="112">
   <si>
     <t>Row</t>
   </si>
@@ -370,7 +370,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -380,14 +380,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,1316 +516,1316 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CM1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CN1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CP1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CR1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CS1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CT1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CU1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CV1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CW1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CX1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CY1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DA1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DB1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DC1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DD1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DE1" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0035609630044525628</v>
+        <v>0.0064084063412742495</v>
       </c>
       <c r="C2">
-        <v>1.4105366983963154e-05</v>
+        <v>2.2729153085210998e-12</v>
       </c>
       <c r="D2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="E2">
-        <v>8.8217089998496529e-11</v>
+        <v>7.2594575473514129e-10</v>
       </c>
       <c r="F2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="G2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="H2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="I2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="J2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="K2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="L2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="M2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="N2">
-        <v>1.9979042723336987e-12</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="O2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="P2">
-        <v>6.3175261540207418e-11</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="Q2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="R2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="S2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="T2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="U2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="V2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="W2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="X2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="Y2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="Z2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AA2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AB2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AC2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AD2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AE2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AF2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AG2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AH2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AI2">
-        <v>0.003560963004452558</v>
+        <v>0.0064084063412742547</v>
       </c>
       <c r="AJ2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AK2">
-        <v>0.0023698604676962998</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AL2">
-        <v>3.8714739487826864e-09</v>
+        <v>1.2496577727400095e-09</v>
       </c>
       <c r="AM2">
-        <v>0.4939556641520953</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AN2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AO2">
-        <v>1.5185290289562562e-13</v>
+        <v>9.359567857594009e-13</v>
       </c>
       <c r="AP2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AQ2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AR2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AS2">
-        <v>2.8371943026299305e-11</v>
+        <v>2.4155357908622637e-08</v>
       </c>
       <c r="AT2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AU2">
-        <v>1.204669706976064e-13</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AV2">
-        <v>1.7523952545039796e-12</v>
+        <v>3.6513001854231576e-11</v>
       </c>
       <c r="AW2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AX2">
-        <v>2.221432195117907e-14</v>
+        <v>3.2749175958605549e-12</v>
       </c>
       <c r="AY2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="AZ2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BA2">
-        <v>1.7224860862810844e-07</v>
+        <v>0.5666488521969627</v>
       </c>
       <c r="BB2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BC2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BD2">
-        <v>0.0035609630044525558</v>
+        <v>0.0064084063412742547</v>
       </c>
       <c r="BE2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BF2">
-        <v>1.5768223173196222e-06</v>
+        <v>8.7788294896580959e-08</v>
       </c>
       <c r="BG2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BH2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BI2">
-        <v>5.5884387981135478e-09</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BJ2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BK2">
-        <v>4.3230990537391406e-05</v>
+        <v>4.6784627783160822e-05</v>
       </c>
       <c r="BL2">
-        <v>2.221432195117907e-14</v>
+        <v>0.0064084063412742547</v>
       </c>
       <c r="BM2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BN2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BO2">
-        <v>4.2849583793388163e-11</v>
+        <v>3.9017750630496726e-10</v>
       </c>
       <c r="BP2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BQ2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BR2">
-        <v>1.5278951082254612e-13</v>
+        <v>2.6984617326237651e-09</v>
       </c>
       <c r="BS2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BT2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BU2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BV2">
-        <v>2.6034014790652418e-12</v>
+        <v>1.5918729871403447e-12</v>
       </c>
       <c r="BW2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BX2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BY2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="BZ2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CA2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CB2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CC2">
-        <v>1.0514790897698571e-13</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CD2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CE2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CF2">
-        <v>0.002369860467696305</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CG2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CH2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CI2">
-        <v>3.3109074605889989e-11</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CJ2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CK2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CL2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CM2">
-        <v>0.49056263071330386</v>
+        <v>0.0034991172748983683</v>
       </c>
       <c r="CN2">
-        <v>4.2036760257660369e-12</v>
+        <v>1.4799204241423973e-11</v>
       </c>
       <c r="CO2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CP2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CQ2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CR2">
-        <v>2.8902737135343513e-11</v>
+        <v>0.40417150346604286</v>
       </c>
       <c r="CS2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CT2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CU2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CV2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CW2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CX2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CY2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="CZ2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="DA2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="DB2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="DC2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="DD2">
-        <v>2.221432195117907e-14</v>
+        <v>2.2209781214163605e-14</v>
       </c>
       <c r="DE2">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.9482417311561586e-13</v>
+        <v>3.8122805867519828e-14</v>
       </c>
       <c r="C3">
-        <v>2.9482417311561586e-13</v>
+        <v>3.8122805867519828e-14</v>
       </c>
       <c r="D3">
-        <v>2.9482417311561586e-13</v>
+        <v>3.8122805867519828e-14</v>
       </c>
       <c r="E3">
-        <v>2.9482417311561404e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="F3">
-        <v>2.9482417311561404e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="G3">
-        <v>2.9482417311561586e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="H3">
-        <v>2.9482417311561586e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="I3">
-        <v>2.9482417311561586e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="J3">
-        <v>2.9482417311561586e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="K3">
-        <v>2.9482417311561439e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="L3">
-        <v>1.9705263656523611e-05</v>
+        <v>3.7454057279107705e-10</v>
       </c>
       <c r="M3">
-        <v>2.948241731156146e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="N3">
-        <v>2.948241731156146e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="O3">
-        <v>2.9482417311561439e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="P3">
-        <v>7.5430190625099841e-12</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="Q3">
-        <v>2.948241731156146e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="R3">
-        <v>2.9482417311565579e-13</v>
+        <v>3.8122805867519759e-14</v>
       </c>
       <c r="S3">
-        <v>2.9482417311561455e-13</v>
+        <v>3.8122805867519721e-14</v>
       </c>
       <c r="T3">
-        <v>2.948241731156154e-13</v>
+        <v>3.8122805867519721e-14</v>
       </c>
       <c r="U3">
-        <v>2.948241731156154e-13</v>
+        <v>3.8122805867519721e-14</v>
       </c>
       <c r="V3">
-        <v>2.948241731156154e-13</v>
+        <v>3.8122805867519721e-14</v>
       </c>
       <c r="W3">
-        <v>2.948241731156154e-13</v>
+        <v>3.8122805867519721e-14</v>
       </c>
       <c r="X3">
-        <v>2.948241731156154e-13</v>
+        <v>3.8122805867519721e-14</v>
       </c>
       <c r="Y3">
-        <v>2.948241731156154e-13</v>
+        <v>3.8122805867519721e-14</v>
       </c>
       <c r="Z3">
-        <v>2.948241731156154e-13</v>
+        <v>3.8122805867519721e-14</v>
       </c>
       <c r="AA3">
-        <v>2.9482417311561455e-13</v>
+        <v>3.8122805867519702e-14</v>
       </c>
       <c r="AB3">
-        <v>6.8105922034270101e-05</v>
+        <v>2.4382683729754191e-05</v>
       </c>
       <c r="AC3">
-        <v>2.9482417311561455e-13</v>
+        <v>3.8122805867519734e-14</v>
       </c>
       <c r="AD3">
-        <v>2.948241731156154e-13</v>
+        <v>3.812280586751974e-14</v>
       </c>
       <c r="AE3">
-        <v>2.948241731156154e-13</v>
+        <v>3.812280586751974e-14</v>
       </c>
       <c r="AF3">
-        <v>2.948241731156154e-13</v>
+        <v>3.812280586751974e-14</v>
       </c>
       <c r="AG3">
-        <v>2.948241731156154e-13</v>
+        <v>3.812280586751974e-14</v>
       </c>
       <c r="AH3">
-        <v>2.948241731156154e-13</v>
+        <v>3.812280586751974e-14</v>
       </c>
       <c r="AI3">
-        <v>2.9482417311561495e-13</v>
+        <v>3.8122805867519582e-14</v>
       </c>
       <c r="AJ3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519582e-14</v>
       </c>
       <c r="AK3">
-        <v>2.9482417311561495e-13</v>
+        <v>3.8122805867519652e-14</v>
       </c>
       <c r="AL3">
-        <v>3.0077943900566757e-05</v>
+        <v>2.8912235502380923e-05</v>
       </c>
       <c r="AM3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519652e-14</v>
       </c>
       <c r="AN3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="AO3">
-        <v>2.9482417311561414e-13</v>
+        <v>3.8122805867519652e-14</v>
       </c>
       <c r="AP3">
-        <v>0.95610039405312575</v>
+        <v>0.96350497906740629</v>
       </c>
       <c r="AQ3">
-        <v>2.9482417311561414e-13</v>
+        <v>3.8122805867519652e-14</v>
       </c>
       <c r="AR3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="AS3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="AT3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="AU3">
-        <v>2.9482417311577368e-13</v>
+        <v>3.8122805867648678e-14</v>
       </c>
       <c r="AV3">
-        <v>2.9482417311589339e-13</v>
+        <v>3.8122805867596941e-14</v>
       </c>
       <c r="AW3">
-        <v>2.9482417311561439e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="AX3">
-        <v>0.0046796660834113671</v>
+        <v>0.0022166711740880395</v>
       </c>
       <c r="AY3">
-        <v>2.9482417311561414e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="AZ3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BA3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BB3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BC3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BD3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BE3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BF3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BG3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BH3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BI3">
-        <v>2.9482417311561414e-13</v>
+        <v>3.8122805867519652e-14</v>
       </c>
       <c r="BJ3">
-        <v>0.00045076788509493699</v>
+        <v>0.01638900994886363</v>
       </c>
       <c r="BK3">
-        <v>0.034709958326682513</v>
+        <v>0.016269826050138103</v>
       </c>
       <c r="BL3">
-        <v>2.9482417311561414e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BM3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BN3">
-        <v>2.9482417311561389e-13</v>
+        <v>3.8122805867519563e-14</v>
       </c>
       <c r="BO3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519405e-14</v>
       </c>
       <c r="BP3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519405e-14</v>
       </c>
       <c r="BQ3">
-        <v>2.9482417311561419e-13</v>
+        <v>3.8122805867519405e-14</v>
       </c>
       <c r="BR3">
-        <v>0.0014322488638044682</v>
+        <v>0.00011998397776557954</v>
       </c>
       <c r="BS3">
-        <v>2.9482417311561419e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="BT3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867534974e-14</v>
       </c>
       <c r="BU3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="BV3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="BW3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="BX3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="BY3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="BZ3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CA3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CB3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CC3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CD3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CE3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CF3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CG3">
-        <v>2.9482417311561475e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CH3">
-        <v>0.002509075461769606</v>
+        <v>0.0014462343767657087</v>
       </c>
       <c r="CI3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CJ3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CK3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CL3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CM3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CN3">
-        <v>9.616556672316189e-11</v>
+        <v>3.8122805867534974e-14</v>
       </c>
       <c r="CO3">
-        <v>6.4803547913780708e-11</v>
+        <v>1.0750424713262101e-10</v>
       </c>
       <c r="CP3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CQ3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CR3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CS3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CT3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CU3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CV3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CW3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CX3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CY3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="CZ3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="DA3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="DB3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="DC3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="DD3">
-        <v>2.9482417311561505e-13</v>
+        <v>3.8122805867519336e-14</v>
       </c>
       <c r="DE3">
         <v>41</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.0138745980386384e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="C4">
-        <v>6.8674164709196307e-10</v>
+        <v>5.6172816086835897e-11</v>
       </c>
       <c r="D4">
-        <v>3.0138745980386384e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="E4">
-        <v>7.7549599652476011e-07</v>
+        <v>1.3152556452099446e-06</v>
       </c>
       <c r="F4">
-        <v>3.0138745980386384e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="G4">
-        <v>3.0138745980386384e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="H4">
-        <v>3.0138745980386384e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="I4">
-        <v>3.0138745980386384e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="J4">
-        <v>3.0138745980386384e-14</v>
+        <v>2.7020572568298807e-13</v>
       </c>
       <c r="K4">
-        <v>3.0138745980386296e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="L4">
-        <v>3.0138745980386315e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="M4">
-        <v>3.0138745980386315e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="N4">
-        <v>3.0138745980386315e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="O4">
-        <v>3.0138745980386315e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="P4">
-        <v>3.0138745980386315e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="Q4">
-        <v>3.0138745980386315e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="R4">
-        <v>3.0138745980386315e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="S4">
-        <v>3.0138745980386327e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="T4">
-        <v>3.0138745980386327e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="U4">
-        <v>3.0138745980386327e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="V4">
-        <v>3.0138745980386327e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="W4">
-        <v>3.0138745980386327e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="X4">
-        <v>3.0138745980386327e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="Y4">
-        <v>7.5234401718869985e-10</v>
+        <v>4.29816002829614e-10</v>
       </c>
       <c r="Z4">
-        <v>3.0138745980386416e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AA4">
-        <v>3.0138745980386416e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AB4">
-        <v>3.0138745980386416e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AC4">
-        <v>3.0138745980386416e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AD4">
-        <v>5.4635860903106638e-07</v>
+        <v>2.0026493306515924e-05</v>
       </c>
       <c r="AE4">
-        <v>3.0138745980386416e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AF4">
-        <v>3.0138745980386416e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AG4">
-        <v>3.0138745980386416e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AH4">
-        <v>3.0138745980386416e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AI4">
-        <v>3.0138745980386435e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AJ4">
-        <v>3.0138745980386435e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AK4">
-        <v>3.0138745980386435e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AL4">
-        <v>1.1463424789138305e-09</v>
+        <v>1.9999605539699226e-09</v>
       </c>
       <c r="AM4">
-        <v>3.0138745980386435e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AN4">
-        <v>3.0138745980386435e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AO4">
-        <v>1.2119668991704658e-12</v>
+        <v>2.8253135345618015e-13</v>
       </c>
       <c r="AP4">
-        <v>5.7221124863881665e-05</v>
+        <v>0.00041840454006205903</v>
       </c>
       <c r="AQ4">
-        <v>3.0138745980386504e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AR4">
-        <v>3.0138745980386504e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AS4">
-        <v>3.0138745980386504e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AT4">
-        <v>3.0138745980386504e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AU4">
-        <v>0.0010783684785459304</v>
+        <v>0.001985184212684388</v>
       </c>
       <c r="AV4">
-        <v>3.0138745980459818e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AW4">
-        <v>3.0138745980386504e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AX4">
-        <v>3.771491967953793e-07</v>
+        <v>5.5698251967533468e-06</v>
       </c>
       <c r="AY4">
-        <v>3.0138745980398671e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="AZ4">
-        <v>3.0138745980451746e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BA4">
-        <v>9.9953815052957876e-08</v>
+        <v>6.6065243798383897e-09</v>
       </c>
       <c r="BB4">
-        <v>3.0138745980386327e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BC4">
-        <v>0.99605696135958921</v>
+        <v>0.996333831401777</v>
       </c>
       <c r="BD4">
-        <v>3.0138745980386416e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BE4">
-        <v>3.0138745980386416e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BF4">
-        <v>1.4653878436911341e-08</v>
+        <v>1.0406343813210252e-10</v>
       </c>
       <c r="BG4">
-        <v>1.1587482965499559e-06</v>
+        <v>9.4014178644384134e-08</v>
       </c>
       <c r="BH4">
-        <v>3.0138745980386479e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BI4">
-        <v>3.0138745980386479e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BJ4">
-        <v>3.0138745980386479e-14</v>
+        <v>5.9279677459763953e-12</v>
       </c>
       <c r="BK4">
-        <v>7.1879015958901602e-09</v>
+        <v>4.5463927442346626e-12</v>
       </c>
       <c r="BL4">
-        <v>3.0138745980386479e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BM4">
-        <v>3.0138745980394658e-14</v>
+        <v>4.3726075041828291e-12</v>
       </c>
       <c r="BN4">
-        <v>3.0138745980386479e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BO4">
-        <v>0.0027892418044126207</v>
+        <v>0.0011802192709999154</v>
       </c>
       <c r="BP4">
-        <v>3.0138745980386353e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BQ4">
-        <v>3.0138745980382351e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BR4">
-        <v>1.4663975333944475e-05</v>
+        <v>1.8950888530323902e-05</v>
       </c>
       <c r="BS4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BT4">
-        <v>1.2804457511695113e-10</v>
+        <v>1.4733389150843701e-08</v>
       </c>
       <c r="BU4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BV4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BW4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BX4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BY4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="BZ4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CA4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CB4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CC4">
-        <v>3.0138745980390467e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CD4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CE4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CF4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CG4">
-        <v>3.0138745980382383e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CH4">
-        <v>3.4594809998166892e-07</v>
+        <v>3.1171401361842281e-06</v>
       </c>
       <c r="CI4">
-        <v>6.4635343629328054e-13</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CJ4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CK4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CL4">
-        <v>1.2416184037269951e-11</v>
+        <v>8.5238852986222072e-10</v>
       </c>
       <c r="CM4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CN4">
-        <v>3.0138745980386353e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CO4">
-        <v>2.1475478327396852e-07</v>
+        <v>3.3261973750682191e-05</v>
       </c>
       <c r="CP4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CQ4">
-        <v>3.013874598042714e-14</v>
+        <v>7.4193382244202631e-11</v>
       </c>
       <c r="CR4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CS4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CT4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CU4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CV4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CW4">
-        <v>2.7637026169482516e-10</v>
+        <v>1.1000345426128919e-10</v>
       </c>
       <c r="CX4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CY4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="CZ4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="DA4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="DB4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="DC4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="DD4">
-        <v>3.0138745980382314e-14</v>
+        <v>2.2203911957106097e-14</v>
       </c>
       <c r="DE4">
         <v>54</v>
